--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Cxcl13</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.29529255342571</v>
+        <v>4.046465333333333</v>
       </c>
       <c r="H2">
-        <v>3.29529255342571</v>
+        <v>12.139396</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8279246837497715</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8279246837497715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.221803199990388</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N2">
-        <v>0.221803199990388</v>
+        <v>0.69472</v>
       </c>
       <c r="O2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q2">
-        <v>0.7309064332543191</v>
+        <v>0.9370534654577777</v>
       </c>
       <c r="R2">
-        <v>0.7309064332543191</v>
+        <v>8.43348118912</v>
       </c>
       <c r="S2">
-        <v>0.2780507033262193</v>
+        <v>0.1963074211536416</v>
       </c>
       <c r="T2">
-        <v>0.2780507033262193</v>
+        <v>0.1963074211536416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,495 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.29529255342571</v>
+        <v>4.046465333333333</v>
       </c>
       <c r="H3">
-        <v>3.29529255342571</v>
+        <v>12.139396</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8279246837497715</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8279246837497715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.575904546607758</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N3">
-        <v>0.575904546607758</v>
+        <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q3">
-        <v>1.897773963920555</v>
+        <v>2.913840803028445</v>
       </c>
       <c r="R3">
-        <v>1.897773963920555</v>
+        <v>26.224567227256</v>
       </c>
       <c r="S3">
-        <v>0.7219492966737807</v>
+        <v>0.6104332300989117</v>
       </c>
       <c r="T3">
-        <v>0.7219492966737807</v>
+        <v>0.6104332300989117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.046465333333333</v>
+      </c>
+      <c r="H4">
+        <v>12.139396</v>
+      </c>
+      <c r="I4">
+        <v>0.8279246837497715</v>
+      </c>
+      <c r="J4">
+        <v>0.8279246837497715</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P4">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q4">
+        <v>0.1011198198582222</v>
+      </c>
+      <c r="R4">
+        <v>0.9100783787239999</v>
+      </c>
+      <c r="S4">
+        <v>0.0211840324972181</v>
+      </c>
+      <c r="T4">
+        <v>0.0211840324972181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.2754046666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.826214</v>
+      </c>
+      <c r="I5">
+        <v>0.05634901148785605</v>
+      </c>
+      <c r="J5">
+        <v>0.05634901148785604</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.69472</v>
+      </c>
+      <c r="O5">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P5">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q5">
+        <v>0.06377637667555555</v>
+      </c>
+      <c r="R5">
+        <v>0.57398739008</v>
+      </c>
+      <c r="S5">
+        <v>0.01336079156335578</v>
+      </c>
+      <c r="T5">
+        <v>0.01336079156335578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2754046666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.826214</v>
+      </c>
+      <c r="I6">
+        <v>0.05634901148785605</v>
+      </c>
+      <c r="J6">
+        <v>0.05634901148785604</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.160286</v>
+      </c>
+      <c r="O6">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P6">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q6">
+        <v>0.1983176152448889</v>
+      </c>
+      <c r="R6">
+        <v>1.784858537204</v>
+      </c>
+      <c r="S6">
+        <v>0.0415464229664262</v>
+      </c>
+      <c r="T6">
+        <v>0.04154642296642619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2754046666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.826214</v>
+      </c>
+      <c r="I7">
+        <v>0.05634901148785605</v>
+      </c>
+      <c r="J7">
+        <v>0.05634901148785604</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P7">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q7">
+        <v>0.006882270818444444</v>
+      </c>
+      <c r="R7">
+        <v>0.061940437366</v>
+      </c>
+      <c r="S7">
+        <v>0.001441796958074072</v>
+      </c>
+      <c r="T7">
+        <v>0.001441796958074072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.5656100000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.69683</v>
+      </c>
+      <c r="I8">
+        <v>0.1157263047623724</v>
+      </c>
+      <c r="J8">
+        <v>0.1157263047623724</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.69472</v>
+      </c>
+      <c r="O8">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P8">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q8">
+        <v>0.1309801930666667</v>
+      </c>
+      <c r="R8">
+        <v>1.1788217376</v>
+      </c>
+      <c r="S8">
+        <v>0.02743961243509429</v>
+      </c>
+      <c r="T8">
+        <v>0.02743961243509428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5656100000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.69683</v>
+      </c>
+      <c r="I9">
+        <v>0.1157263047623724</v>
+      </c>
+      <c r="J9">
+        <v>0.1157263047623724</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.160286</v>
+      </c>
+      <c r="O9">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P9">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q9">
+        <v>0.4072931214866667</v>
+      </c>
+      <c r="R9">
+        <v>3.665638093380001</v>
+      </c>
+      <c r="S9">
+        <v>0.0853256140444497</v>
+      </c>
+      <c r="T9">
+        <v>0.08532561404444969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.5656100000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.69683</v>
+      </c>
+      <c r="I10">
+        <v>0.1157263047623724</v>
+      </c>
+      <c r="J10">
+        <v>0.1157263047623724</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q10">
+        <v>0.01413440536333333</v>
+      </c>
+      <c r="R10">
+        <v>0.12720964827</v>
+      </c>
+      <c r="S10">
+        <v>0.002961078282828453</v>
+      </c>
+      <c r="T10">
+        <v>0.002961078282828454</v>
       </c>
     </row>
   </sheetData>
